--- a/kiem-thu-dong-du-lieu/tailieu/table1.xlsx
+++ b/kiem-thu-dong-du-lieu/tailieu/table1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNI\KIEM_THU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\UNI\kiemthu\INT3117_1_homework\kiem-thu-dong-du-lieu\tailieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25135" windowHeight="10224"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="159">
   <si>
     <t>Biến</t>
   </si>
@@ -80,18 +80,9 @@
     <t>(3, 5)</t>
   </si>
   <si>
-    <t>(3, 6)</t>
-  </si>
-  <si>
     <t>3-4-5</t>
   </si>
   <si>
-    <t>3-4-6</t>
-  </si>
-  <si>
-    <t>0-1-3-4</t>
-  </si>
-  <si>
     <t>0-1-3-4-6</t>
   </si>
   <si>
@@ -444,6 +435,72 @@
   </si>
   <si>
     <t>R=1, C=3, energy=100, obstacles=[(1, 2), (1, 1)]</t>
+  </si>
+  <si>
+    <t>(0, 1(T))</t>
+  </si>
+  <si>
+    <t>0-1(T)</t>
+  </si>
+  <si>
+    <t>(0, 1(F))</t>
+  </si>
+  <si>
+    <t>0-1(T)-3</t>
+  </si>
+  <si>
+    <t>(0, 4(T))</t>
+  </si>
+  <si>
+    <t>0-1(F)-2-4(T)</t>
+  </si>
+  <si>
+    <t>0-1(F)-2-4(T)-5</t>
+  </si>
+  <si>
+    <t>(0, 4(F))</t>
+  </si>
+  <si>
+    <t>0-1(F)-2-4(F)</t>
+  </si>
+  <si>
+    <t>(3, 4(T))</t>
+  </si>
+  <si>
+    <t>3-4(T)</t>
+  </si>
+  <si>
+    <t>(3, 4(F))</t>
+  </si>
+  <si>
+    <t>3-4(F)</t>
+  </si>
+  <si>
+    <t>0-1(F)</t>
+  </si>
+  <si>
+    <t>0-1(T)-3-4(T)</t>
+  </si>
+  <si>
+    <t>0-1(T)-3-4(F)</t>
+  </si>
+  <si>
+    <t>0-1(T)-3-4(F)-6</t>
+  </si>
+  <si>
+    <t>(2, 4(T))</t>
+  </si>
+  <si>
+    <t>2-4(T)</t>
+  </si>
+  <si>
+    <t>(2, 4(F))</t>
+  </si>
+  <si>
+    <t>2-4(F)</t>
+  </si>
+  <si>
+    <t>2-4(F)-6</t>
   </si>
 </sst>
 </file>
@@ -780,23 +837,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" customWidth="1"/>
-    <col min="3" max="3" width="25.88671875" customWidth="1"/>
-    <col min="4" max="4" width="34.21875" customWidth="1"/>
-    <col min="5" max="5" width="38.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="5" max="5" width="38.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -807,192 +864,185 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="C7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>14</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
@@ -1004,7 +1054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>9</v>
       </c>
@@ -1015,838 +1065,839 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>26</v>
       </c>
-      <c r="D26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="C41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" t="s">
         <v>30</v>
       </c>
-      <c r="D27" t="s">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B44" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C44" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="1" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="B45" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" t="s">
-        <v>43</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" t="s">
+        <v>37</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" t="s">
+        <v>53</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" t="s">
+        <v>59</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" t="s">
+        <v>61</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" t="s">
+        <v>64</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E48" t="s">
-        <v>50</v>
-      </c>
-      <c r="F48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E49" t="s">
-        <v>40</v>
-      </c>
-      <c r="F49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" t="s">
-        <v>54</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" t="s">
-        <v>61</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E52" t="s">
-        <v>62</v>
-      </c>
-      <c r="F52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" t="s">
-        <v>63</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E53" t="s">
-        <v>64</v>
-      </c>
-      <c r="F53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" t="s">
-        <v>65</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E54" t="s">
-        <v>67</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" t="s">
-        <v>69</v>
-      </c>
-      <c r="D55" s="3" t="s">
+      <c r="E61" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E55" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B59" s="6" t="s">
+      <c r="F61" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="6" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E66" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E64" s="6" t="s">
+      <c r="F66" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F64" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="E68" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E72" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="F72" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E70" s="6" t="s">
+      <c r="C74" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F70" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>118</v>
-      </c>
       <c r="D74" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="F77" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+    </row>
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="C79" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="6" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="6" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C84" s="6" t="s">
-        <v>136</v>
-      </c>
       <c r="D84" s="5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C86" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C85" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D86" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1854,7 +1905,7 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1862,7 +1913,7 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -1870,6 +1921,22 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
